--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H2">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.47282817742026</v>
+        <v>4.750436666666666</v>
       </c>
       <c r="N2">
-        <v>4.47282817742026</v>
+        <v>14.25131</v>
       </c>
       <c r="O2">
-        <v>0.07363035488982679</v>
+        <v>0.07745299862590357</v>
       </c>
       <c r="P2">
-        <v>0.07363035488982679</v>
+        <v>0.07745299862590359</v>
       </c>
       <c r="Q2">
-        <v>18.7073132854864</v>
+        <v>20.32304103852778</v>
       </c>
       <c r="R2">
-        <v>18.7073132854864</v>
+        <v>182.90736934675</v>
       </c>
       <c r="S2">
-        <v>0.07135214949169991</v>
+        <v>0.07484457599537278</v>
       </c>
       <c r="T2">
-        <v>0.07135214949169991</v>
+        <v>0.07484457599537279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H3">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.0294531922364</v>
+        <v>34.05277366666667</v>
       </c>
       <c r="N3">
-        <v>34.0294531922364</v>
+        <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5601826441489289</v>
+        <v>0.5552098927072401</v>
       </c>
       <c r="P3">
-        <v>0.5601826441489289</v>
+        <v>0.5552098927072401</v>
       </c>
       <c r="Q3">
-        <v>142.3259773345744</v>
+        <v>145.6825898889361</v>
       </c>
       <c r="R3">
-        <v>142.3259773345744</v>
+        <v>1311.143309000425</v>
       </c>
       <c r="S3">
-        <v>0.5428499676224247</v>
+        <v>0.5365118167834528</v>
       </c>
       <c r="T3">
-        <v>0.5428499676224247</v>
+        <v>0.5365118167834527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H4">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.2447866583728</v>
+        <v>22.52994333333334</v>
       </c>
       <c r="N4">
-        <v>22.2447866583728</v>
+        <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3661870009612443</v>
+        <v>0.3673371086668564</v>
       </c>
       <c r="P4">
-        <v>0.3661870009612443</v>
+        <v>0.3673371086668564</v>
       </c>
       <c r="Q4">
-        <v>93.03737511933679</v>
+        <v>96.38628932197223</v>
       </c>
       <c r="R4">
-        <v>93.03737511933679</v>
+        <v>867.47660389775</v>
       </c>
       <c r="S4">
-        <v>0.3548567662562495</v>
+        <v>0.3549661166551937</v>
       </c>
       <c r="T4">
-        <v>0.3548567662562495</v>
+        <v>0.3549661166551937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H5">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.47282817742026</v>
+        <v>4.750436666666666</v>
       </c>
       <c r="N5">
-        <v>4.47282817742026</v>
+        <v>14.25131</v>
       </c>
       <c r="O5">
-        <v>0.07363035488982679</v>
+        <v>0.07745299862590357</v>
       </c>
       <c r="P5">
-        <v>0.07363035488982679</v>
+        <v>0.07745299862590359</v>
       </c>
       <c r="Q5">
-        <v>0.5973064920266136</v>
+        <v>0.7082821896055556</v>
       </c>
       <c r="R5">
-        <v>0.5973064920266136</v>
+        <v>6.37453970645</v>
       </c>
       <c r="S5">
-        <v>0.002278205398126878</v>
+        <v>0.002608422630530801</v>
       </c>
       <c r="T5">
-        <v>0.002278205398126878</v>
+        <v>0.002608422630530801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H6">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.0294531922364</v>
+        <v>34.05277366666667</v>
       </c>
       <c r="N6">
-        <v>34.0294531922364</v>
+        <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5601826441489289</v>
+        <v>0.5552098927072401</v>
       </c>
       <c r="P6">
-        <v>0.5601826441489289</v>
+        <v>0.5552098927072401</v>
       </c>
       <c r="Q6">
-        <v>4.544331350452583</v>
+        <v>5.077211799077222</v>
       </c>
       <c r="R6">
-        <v>4.544331350452583</v>
+        <v>45.694906191695</v>
       </c>
       <c r="S6">
-        <v>0.01733267652650425</v>
+        <v>0.01869807592378736</v>
       </c>
       <c r="T6">
-        <v>0.01733267652650425</v>
+        <v>0.01869807592378735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H7">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.2447866583728</v>
+        <v>22.52994333333334</v>
       </c>
       <c r="N7">
-        <v>22.2447866583728</v>
+        <v>67.58983000000001</v>
       </c>
       <c r="O7">
-        <v>0.3661870009612443</v>
+        <v>0.3673371086668564</v>
       </c>
       <c r="P7">
-        <v>0.3661870009612443</v>
+        <v>0.3673371086668564</v>
       </c>
       <c r="Q7">
-        <v>2.970593762547891</v>
+        <v>3.359177001094445</v>
       </c>
       <c r="R7">
-        <v>2.970593762547891</v>
+        <v>30.23259300985</v>
       </c>
       <c r="S7">
-        <v>0.0113302347049948</v>
+        <v>0.01237099201166276</v>
       </c>
       <c r="T7">
-        <v>0.0113302347049948</v>
+        <v>0.01237099201166276</v>
       </c>
     </row>
   </sheetData>
